--- a/_resource/excel/class.xlsx
+++ b/_resource/excel/class.xlsx
@@ -768,9 +768,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -805,24 +805,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,27 +814,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -867,23 +860,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,25 +882,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -928,8 +903,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,16 +950,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1031,7 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1043,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,97 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,43 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,32 +1237,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,16 +1281,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1310,15 +1319,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1327,145 +1327,145 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1947,11 +1947,11 @@
   <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>

--- a/_resource/excel/class.xlsx
+++ b/_resource/excel/class.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="194">
   <si>
     <t>Class</t>
   </si>
@@ -401,7 +401,13 @@
     <t>玩家记录id(服务器使用)</t>
   </si>
   <si>
-    <t>Note</t>
+    <t>KeyValue</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>玩家变量id</t>
   </si>
   <si>
     <t>mail</t>
@@ -505,13 +511,34 @@
     <t>SignIn</t>
   </si>
   <si>
-    <t>服务器记录id</t>
+    <t>order</t>
+  </si>
+  <si>
+    <t>充值订单号</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>游戏币</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>记录id</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>服务器记录值</t>
+    <t>记录值</t>
   </si>
   <si>
     <r>
@@ -767,10 +794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -806,7 +833,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,7 +877,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,8 +899,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -845,22 +931,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,72 +952,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -949,8 +975,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,19 +1058,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,19 +1166,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,19 +1190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,73 +1220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,26 +1249,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,11 +1301,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1275,23 +1326,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,15 +1346,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1327,10 +1354,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1339,133 +1366,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1944,19 +1971,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="14" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="48.5" style="14" customWidth="1"/>
@@ -3063,7 +3090,7 @@
         <v>95</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>53</v>
@@ -3078,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="L23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6">
         <v>1</v>
       </c>
       <c r="N23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="6">
         <v>0</v>
@@ -3110,14 +3137,23 @@
         <v>56</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="H24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J24" s="6">
         <v>0</v>
       </c>
@@ -3128,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="6">
         <v>0</v>
@@ -3160,191 +3196,182 @@
         <v>99</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="G26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1</v>
-      </c>
-      <c r="N25" s="6">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="7" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A26" s="7" t="s">
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
+      <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1</v>
-      </c>
-      <c r="O26" s="7">
-        <v>1</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0</v>
-      </c>
-      <c r="U26" s="6"/>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>53</v>
+      <c r="I27" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="J27" s="6">
         <v>0</v>
       </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6">
-        <v>1</v>
-      </c>
-      <c r="N27" s="6">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6">
-        <v>0</v>
-      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="6"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>53</v>
@@ -3368,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="6">
         <v>0</v>
@@ -3386,21 +3413,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" ht="17" customHeight="1" spans="1:20">
+    <row r="29" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>53</v>
@@ -3424,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="6">
         <v>0</v>
@@ -3442,508 +3469,519 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+    <row r="30" s="6" customFormat="1" ht="17" customHeight="1" spans="1:20">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="G30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>1</v>
-      </c>
-      <c r="M30" s="6">
-        <v>1</v>
-      </c>
-      <c r="N30" s="6">
-        <v>1</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
-      <c r="T30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="8" customFormat="1" spans="1:20">
-      <c r="A31" s="8" t="s">
+      <c r="D31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="1:20">
+      <c r="A35" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0</v>
-      </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>0</v>
-      </c>
-      <c r="R31" s="8">
-        <v>0</v>
-      </c>
-      <c r="S31" s="8">
-        <v>0</v>
-      </c>
-      <c r="T31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="8" customFormat="1" spans="1:20">
-      <c r="A32" s="8" t="s">
+      <c r="D35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="1:20">
+      <c r="A36" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="B36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8">
-        <v>1</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="1:20">
-      <c r="A33" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
-        <v>1</v>
-      </c>
-      <c r="M33" s="9">
-        <v>1</v>
-      </c>
-      <c r="N33" s="9">
-        <v>1</v>
-      </c>
-      <c r="O33" s="9">
-        <v>1</v>
-      </c>
-      <c r="P33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>0</v>
-      </c>
-      <c r="R33" s="9">
-        <v>0</v>
-      </c>
-      <c r="S33" s="9">
-        <v>0</v>
-      </c>
-      <c r="T33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:20">
-      <c r="A34" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="J34" s="15">
-        <v>0</v>
-      </c>
-      <c r="K34" s="15">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>1</v>
-      </c>
-      <c r="M34" s="9">
-        <v>1</v>
-      </c>
-      <c r="N34" s="9">
-        <v>1</v>
-      </c>
-      <c r="O34" s="9">
-        <v>1</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="1:20">
-      <c r="A35" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>1</v>
-      </c>
-      <c r="M35" s="9">
-        <v>1</v>
-      </c>
-      <c r="N35" s="9">
-        <v>1</v>
-      </c>
-      <c r="O35" s="9">
-        <v>1</v>
-      </c>
-      <c r="P35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>0</v>
-      </c>
-      <c r="R35" s="9">
-        <v>0</v>
-      </c>
-      <c r="S35" s="9">
-        <v>0</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="9" customFormat="1" spans="1:20">
-      <c r="A36" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="J36" s="15">
-        <v>0</v>
-      </c>
-      <c r="K36" s="15">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>1</v>
-      </c>
-      <c r="M36" s="9">
-        <v>1</v>
-      </c>
-      <c r="N36" s="9">
-        <v>1</v>
-      </c>
-      <c r="O36" s="9">
-        <v>1</v>
-      </c>
-      <c r="P36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>0</v>
-      </c>
-      <c r="R36" s="9">
-        <v>0</v>
-      </c>
-      <c r="S36" s="9">
-        <v>0</v>
-      </c>
-      <c r="T36" s="9">
+      <c r="D36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0</v>
+      </c>
+      <c r="T36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" spans="1:20">
       <c r="A37" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9">
+        <v>1</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="1" spans="1:20">
+      <c r="A38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>1</v>
-      </c>
-      <c r="M37" s="9">
-        <v>1</v>
-      </c>
-      <c r="N37" s="9">
-        <v>1</v>
-      </c>
-      <c r="O37" s="9">
-        <v>1</v>
-      </c>
-      <c r="P37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>0</v>
-      </c>
-      <c r="R37" s="9">
-        <v>0</v>
-      </c>
-      <c r="S37" s="9">
-        <v>0</v>
-      </c>
-      <c r="T37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:20">
-      <c r="A38" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-      <c r="K38" s="10">
-        <v>0</v>
-      </c>
-      <c r="L38" s="10">
-        <v>1</v>
-      </c>
-      <c r="M38" s="10">
-        <v>1</v>
-      </c>
-      <c r="N38" s="10">
-        <v>1</v>
-      </c>
-      <c r="O38" s="10">
-        <v>1</v>
-      </c>
-      <c r="P38" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>0</v>
-      </c>
-      <c r="R38" s="10">
-        <v>0</v>
-      </c>
-      <c r="S38" s="10">
-        <v>0</v>
-      </c>
-      <c r="T38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:20">
-      <c r="A39" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="D38" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9">
+        <v>1</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="9" customFormat="1" spans="1:20">
+      <c r="A39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0</v>
-      </c>
-      <c r="K39" s="10">
-        <v>0</v>
-      </c>
-      <c r="L39" s="10">
-        <v>1</v>
-      </c>
-      <c r="M39" s="10">
-        <v>1</v>
-      </c>
-      <c r="N39" s="10">
-        <v>1</v>
-      </c>
-      <c r="O39" s="10">
-        <v>1</v>
-      </c>
-      <c r="P39" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>0</v>
-      </c>
-      <c r="R39" s="10">
-        <v>0</v>
-      </c>
-      <c r="S39" s="10">
-        <v>0</v>
-      </c>
-      <c r="T39" s="10">
+      <c r="D39" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1</v>
+      </c>
+      <c r="O39" s="9">
+        <v>1</v>
+      </c>
+      <c r="P39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="40" s="9" customFormat="1" spans="1:20">
       <c r="A40" s="15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
+        <v>141</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
         <v>0</v>
       </c>
       <c r="L40" s="9">
@@ -3976,447 +4014,451 @@
     </row>
     <row r="41" s="9" customFormat="1" spans="1:20">
       <c r="A41" s="15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1</v>
+      </c>
+      <c r="N41" s="9">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9">
+        <v>1</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="1:20">
+      <c r="A42" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="C42" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
+        <v>1</v>
+      </c>
+      <c r="M42" s="10">
+        <v>1</v>
+      </c>
+      <c r="N42" s="10">
+        <v>1</v>
+      </c>
+      <c r="O42" s="10">
+        <v>1</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0</v>
+      </c>
+      <c r="R42" s="10">
+        <v>0</v>
+      </c>
+      <c r="S42" s="10">
+        <v>0</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="10" customFormat="1" spans="1:20">
+      <c r="A43" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="C43" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>1</v>
+      </c>
+      <c r="M43" s="10">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
+        <v>1</v>
+      </c>
+      <c r="O43" s="10">
+        <v>1</v>
+      </c>
+      <c r="P43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>0</v>
+      </c>
+      <c r="R43" s="10">
+        <v>0</v>
+      </c>
+      <c r="S43" s="10">
+        <v>0</v>
+      </c>
+      <c r="T43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" spans="1:20">
+      <c r="A44" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>1</v>
+      </c>
+      <c r="M44" s="9">
+        <v>1</v>
+      </c>
+      <c r="N44" s="9">
+        <v>1</v>
+      </c>
+      <c r="O44" s="9">
+        <v>1</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="9" customFormat="1" spans="1:20">
+      <c r="A45" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>1</v>
-      </c>
-      <c r="M41" s="9">
-        <v>1</v>
-      </c>
-      <c r="N41" s="9">
-        <v>1</v>
-      </c>
-      <c r="O41" s="9">
-        <v>1</v>
-      </c>
-      <c r="P41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>0</v>
-      </c>
-      <c r="R41" s="9">
-        <v>0</v>
-      </c>
-      <c r="S41" s="9">
-        <v>0</v>
-      </c>
-      <c r="T41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="9" customFormat="1" spans="1:20">
-      <c r="A42" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>1</v>
-      </c>
-      <c r="M42" s="9">
-        <v>1</v>
-      </c>
-      <c r="N42" s="9">
-        <v>1</v>
-      </c>
-      <c r="O42" s="9">
-        <v>1</v>
-      </c>
-      <c r="P42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>0</v>
-      </c>
-      <c r="R42" s="9">
-        <v>0</v>
-      </c>
-      <c r="S42" s="9">
-        <v>0</v>
-      </c>
-      <c r="T42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="9" customFormat="1" spans="1:20">
-      <c r="A43" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="C45" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1</v>
+      </c>
+      <c r="M45" s="9">
+        <v>1</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+      <c r="O45" s="9">
+        <v>1</v>
+      </c>
+      <c r="P45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
+      <c r="R45" s="9">
+        <v>0</v>
+      </c>
+      <c r="S45" s="9">
+        <v>0</v>
+      </c>
+      <c r="T45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" spans="1:20">
+      <c r="A46" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1</v>
+      </c>
+      <c r="N46" s="9">
+        <v>1</v>
+      </c>
+      <c r="O46" s="9">
+        <v>1</v>
+      </c>
+      <c r="P46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9">
+        <v>0</v>
+      </c>
+      <c r="S46" s="9">
+        <v>0</v>
+      </c>
+      <c r="T46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" spans="1:20">
+      <c r="A47" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>1</v>
-      </c>
-      <c r="M43" s="9">
-        <v>1</v>
-      </c>
-      <c r="N43" s="9">
-        <v>1</v>
-      </c>
-      <c r="O43" s="9">
-        <v>1</v>
-      </c>
-      <c r="P43" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>0</v>
-      </c>
-      <c r="R43" s="9">
-        <v>0</v>
-      </c>
-      <c r="S43" s="9">
-        <v>0</v>
-      </c>
-      <c r="T43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="11" customFormat="1" spans="1:20">
-      <c r="A44" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>1</v>
-      </c>
-      <c r="M44" s="11">
-        <v>1</v>
-      </c>
-      <c r="N44" s="11">
-        <v>1</v>
-      </c>
-      <c r="O44" s="11">
-        <v>0</v>
-      </c>
-      <c r="P44" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="11">
-        <v>0</v>
-      </c>
-      <c r="R44" s="11">
-        <v>0</v>
-      </c>
-      <c r="S44" s="11">
-        <v>0</v>
-      </c>
-      <c r="T44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="11" customFormat="1" spans="1:20">
-      <c r="A45" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="17" t="s">
+      <c r="D47" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1</v>
+      </c>
+      <c r="M47" s="9">
+        <v>1</v>
+      </c>
+      <c r="N47" s="9">
+        <v>1</v>
+      </c>
+      <c r="O47" s="9">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+      <c r="R47" s="9">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="11" customFormat="1" spans="1:20">
+      <c r="A48" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1</v>
+      </c>
+      <c r="N48" s="11">
+        <v>1</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" spans="1:20">
+      <c r="A49" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" s="11">
-        <v>0</v>
-      </c>
-      <c r="K45" s="11">
-        <v>0</v>
-      </c>
-      <c r="L45" s="11">
-        <v>1</v>
-      </c>
-      <c r="M45" s="11">
-        <v>1</v>
-      </c>
-      <c r="N45" s="11">
-        <v>1</v>
-      </c>
-      <c r="O45" s="11">
-        <v>0</v>
-      </c>
-      <c r="P45" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="11">
-        <v>0</v>
-      </c>
-      <c r="R45" s="11">
-        <v>0</v>
-      </c>
-      <c r="S45" s="11">
-        <v>0</v>
-      </c>
-      <c r="T45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="12" customFormat="1" spans="1:20">
-      <c r="A46" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="18"/>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="K46" s="12">
-        <v>0</v>
-      </c>
-      <c r="L46" s="12">
-        <v>0</v>
-      </c>
-      <c r="M46" s="12">
-        <v>1</v>
-      </c>
-      <c r="N46" s="12">
-        <v>1</v>
-      </c>
-      <c r="O46" s="12">
-        <v>0</v>
-      </c>
-      <c r="P46" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="12">
-        <v>0</v>
-      </c>
-      <c r="R46" s="12">
-        <v>0</v>
-      </c>
-      <c r="S46" s="12">
-        <v>0</v>
-      </c>
-      <c r="T46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="12" customFormat="1" spans="1:20">
-      <c r="A47" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J47" s="12">
-        <v>0</v>
-      </c>
-      <c r="K47" s="12">
-        <v>0</v>
-      </c>
-      <c r="L47" s="12">
-        <v>0</v>
-      </c>
-      <c r="M47" s="12">
-        <v>1</v>
-      </c>
-      <c r="N47" s="12">
-        <v>1</v>
-      </c>
-      <c r="O47" s="12">
-        <v>0</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>0</v>
-      </c>
-      <c r="R47" s="12">
-        <v>0</v>
-      </c>
-      <c r="S47" s="12">
-        <v>0</v>
-      </c>
-      <c r="T47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" s="12" customFormat="1" spans="1:20">
-      <c r="A48" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="J48" s="12">
-        <v>0</v>
-      </c>
-      <c r="K48" s="12">
-        <v>0</v>
-      </c>
-      <c r="L48" s="12">
-        <v>0</v>
-      </c>
-      <c r="M48" s="12">
-        <v>0</v>
-      </c>
-      <c r="N48" s="12">
-        <v>0</v>
-      </c>
-      <c r="O48" s="12">
-        <v>0</v>
-      </c>
-      <c r="P48" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="12">
-        <v>0</v>
-      </c>
-      <c r="R48" s="12">
-        <v>0</v>
-      </c>
-      <c r="S48" s="12">
-        <v>0</v>
-      </c>
-      <c r="T48" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="12" customFormat="1" spans="1:20">
-      <c r="A49" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="J49" s="12">
-        <v>0</v>
-      </c>
-      <c r="K49" s="12">
-        <v>0</v>
-      </c>
-      <c r="L49" s="12">
-        <v>0</v>
-      </c>
-      <c r="M49" s="12">
-        <v>1</v>
-      </c>
-      <c r="N49" s="12">
-        <v>1</v>
-      </c>
-      <c r="O49" s="12">
-        <v>0</v>
-      </c>
-      <c r="P49" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="12">
-        <v>0</v>
-      </c>
-      <c r="R49" s="12">
-        <v>0</v>
-      </c>
-      <c r="S49" s="12">
-        <v>0</v>
-      </c>
-      <c r="T49" s="12">
+      <c r="D49" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <v>1</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="N49" s="11">
+        <v>1</v>
+      </c>
+      <c r="O49" s="11">
+        <v>0</v>
+      </c>
+      <c r="P49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>0</v>
+      </c>
+      <c r="R49" s="11">
+        <v>0</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0</v>
+      </c>
+      <c r="T49" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="50" s="12" customFormat="1" spans="1:20">
       <c r="A50" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="H50" s="18"/>
       <c r="J50" s="12">
         <v>0</v>
       </c>
@@ -4453,16 +4495,16 @@
     </row>
     <row r="51" s="12" customFormat="1" spans="1:20">
       <c r="A51" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J51" s="12">
         <v>0</v>
@@ -4500,16 +4542,16 @@
     </row>
     <row r="52" s="12" customFormat="1" spans="1:20">
       <c r="A52" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J52" s="12">
         <v>0</v>
@@ -4521,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="12">
         <v>0</v>
@@ -4547,16 +4589,16 @@
     </row>
     <row r="53" s="12" customFormat="1" spans="1:20">
       <c r="A53" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J53" s="12">
         <v>0</v>
@@ -4594,16 +4636,16 @@
     </row>
     <row r="54" s="12" customFormat="1" spans="1:20">
       <c r="A54" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J54" s="12">
         <v>0</v>
@@ -4641,16 +4683,16 @@
     </row>
     <row r="55" s="12" customFormat="1" spans="1:20">
       <c r="A55" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J55" s="12">
         <v>0</v>
@@ -4688,16 +4730,16 @@
     </row>
     <row r="56" s="12" customFormat="1" spans="1:20">
       <c r="A56" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="J56" s="12">
         <v>0</v>
@@ -4735,16 +4777,16 @@
     </row>
     <row r="57" s="12" customFormat="1" spans="1:20">
       <c r="A57" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J57" s="12">
         <v>0</v>
@@ -4782,263 +4824,254 @@
     </row>
     <row r="58" s="12" customFormat="1" spans="1:20">
       <c r="A58" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C58" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12">
+        <v>0</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+      <c r="M58" s="12">
+        <v>1</v>
+      </c>
+      <c r="N58" s="12">
+        <v>1</v>
+      </c>
+      <c r="O58" s="12">
+        <v>0</v>
+      </c>
+      <c r="P58" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>0</v>
+      </c>
+      <c r="R58" s="12">
+        <v>0</v>
+      </c>
+      <c r="S58" s="12">
+        <v>0</v>
+      </c>
+      <c r="T58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="1" spans="1:20">
+      <c r="A59" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12">
+        <v>0</v>
+      </c>
+      <c r="M59" s="12">
+        <v>1</v>
+      </c>
+      <c r="N59" s="12">
+        <v>1</v>
+      </c>
+      <c r="O59" s="12">
+        <v>0</v>
+      </c>
+      <c r="P59" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>0</v>
+      </c>
+      <c r="R59" s="12">
+        <v>0</v>
+      </c>
+      <c r="S59" s="12">
+        <v>0</v>
+      </c>
+      <c r="T59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="12" customFormat="1" spans="1:20">
+      <c r="A60" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J58" s="12">
-        <v>0</v>
-      </c>
-      <c r="K58" s="12">
-        <v>0</v>
-      </c>
-      <c r="L58" s="12">
-        <v>0</v>
-      </c>
-      <c r="M58" s="12">
-        <v>1</v>
-      </c>
-      <c r="N58" s="12">
-        <v>1</v>
-      </c>
-      <c r="O58" s="12">
-        <v>0</v>
-      </c>
-      <c r="P58" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="12">
-        <v>0</v>
-      </c>
-      <c r="R58" s="12">
-        <v>0</v>
-      </c>
-      <c r="S58" s="12">
-        <v>0</v>
-      </c>
-      <c r="T58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:20">
-      <c r="A59" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" s="17">
-        <v>0</v>
-      </c>
-      <c r="K59" s="17">
-        <v>0</v>
-      </c>
-      <c r="L59" s="11">
-        <v>1</v>
-      </c>
-      <c r="M59" s="11">
-        <v>1</v>
-      </c>
-      <c r="N59" s="11">
-        <v>1</v>
-      </c>
-      <c r="O59" s="11">
-        <v>1</v>
-      </c>
-      <c r="P59" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="11">
-        <v>0</v>
-      </c>
-      <c r="R59" s="11">
-        <v>0</v>
-      </c>
-      <c r="S59" s="11">
-        <v>0</v>
-      </c>
-      <c r="T59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" s="11" customFormat="1" spans="1:20">
-      <c r="A60" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="17" t="s">
+      <c r="D60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="12">
+        <v>0</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+      <c r="M60" s="12">
+        <v>1</v>
+      </c>
+      <c r="N60" s="12">
+        <v>1</v>
+      </c>
+      <c r="O60" s="12">
+        <v>0</v>
+      </c>
+      <c r="P60" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>0</v>
+      </c>
+      <c r="R60" s="12">
+        <v>0</v>
+      </c>
+      <c r="S60" s="12">
+        <v>0</v>
+      </c>
+      <c r="T60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="12" customFormat="1" spans="1:20">
+      <c r="A61" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="12">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+      <c r="M61" s="12">
+        <v>1</v>
+      </c>
+      <c r="N61" s="12">
+        <v>1</v>
+      </c>
+      <c r="O61" s="12">
+        <v>0</v>
+      </c>
+      <c r="P61" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>0</v>
+      </c>
+      <c r="R61" s="12">
+        <v>0</v>
+      </c>
+      <c r="S61" s="12">
+        <v>0</v>
+      </c>
+      <c r="T61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="12" customFormat="1" spans="1:20">
+      <c r="A62" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="J60" s="17">
-        <v>0</v>
-      </c>
-      <c r="K60" s="17">
-        <v>0</v>
-      </c>
-      <c r="L60" s="11">
-        <v>1</v>
-      </c>
-      <c r="M60" s="11">
-        <v>1</v>
-      </c>
-      <c r="N60" s="11">
-        <v>1</v>
-      </c>
-      <c r="O60" s="11">
-        <v>1</v>
-      </c>
-      <c r="P60" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="11">
-        <v>0</v>
-      </c>
-      <c r="R60" s="11">
-        <v>0</v>
-      </c>
-      <c r="S60" s="11">
-        <v>0</v>
-      </c>
-      <c r="T60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="11" customFormat="1" spans="1:20">
-      <c r="A61" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J61" s="11">
-        <v>0</v>
-      </c>
-      <c r="K61" s="11">
-        <v>0</v>
-      </c>
-      <c r="L61" s="11">
-        <v>1</v>
-      </c>
-      <c r="M61" s="11">
-        <v>1</v>
-      </c>
-      <c r="N61" s="11">
-        <v>1</v>
-      </c>
-      <c r="O61" s="11">
-        <v>1</v>
-      </c>
-      <c r="P61" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="11">
-        <v>0</v>
-      </c>
-      <c r="R61" s="11">
-        <v>0</v>
-      </c>
-      <c r="S61" s="11">
-        <v>0</v>
-      </c>
-      <c r="T61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="11" customFormat="1" spans="1:20">
-      <c r="A62" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J62" s="17">
-        <v>0</v>
-      </c>
-      <c r="K62" s="17">
-        <v>0</v>
-      </c>
-      <c r="L62" s="11">
-        <v>1</v>
-      </c>
-      <c r="M62" s="11">
-        <v>1</v>
-      </c>
-      <c r="N62" s="11">
-        <v>1</v>
-      </c>
-      <c r="O62" s="11">
-        <v>1</v>
-      </c>
-      <c r="P62" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="11">
-        <v>0</v>
-      </c>
-      <c r="R62" s="11">
-        <v>0</v>
-      </c>
-      <c r="S62" s="11">
-        <v>0</v>
-      </c>
-      <c r="T62" s="11">
+      <c r="D62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+      <c r="K62" s="12">
+        <v>0</v>
+      </c>
+      <c r="L62" s="12">
+        <v>0</v>
+      </c>
+      <c r="M62" s="12">
+        <v>1</v>
+      </c>
+      <c r="N62" s="12">
+        <v>1</v>
+      </c>
+      <c r="O62" s="12">
+        <v>0</v>
+      </c>
+      <c r="P62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>0</v>
+      </c>
+      <c r="R62" s="12">
+        <v>0</v>
+      </c>
+      <c r="S62" s="12">
+        <v>0</v>
+      </c>
+      <c r="T62" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="63" s="11" customFormat="1" spans="1:20">
       <c r="A63" s="17" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="J63" s="17">
         <v>0</v>
@@ -5076,21 +5109,24 @@
     </row>
     <row r="64" s="11" customFormat="1" spans="1:20">
       <c r="A64" s="17" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="J64" s="11">
-        <v>0</v>
-      </c>
-      <c r="K64" s="11">
+        <v>182</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J64" s="17">
+        <v>0</v>
+      </c>
+      <c r="K64" s="17">
         <v>0</v>
       </c>
       <c r="L64" s="11">
@@ -5123,145 +5159,339 @@
     </row>
     <row r="65" s="11" customFormat="1" spans="1:20">
       <c r="A65" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
+        <v>1</v>
+      </c>
+      <c r="M65" s="11">
+        <v>1</v>
+      </c>
+      <c r="N65" s="11">
+        <v>1</v>
+      </c>
+      <c r="O65" s="11">
+        <v>1</v>
+      </c>
+      <c r="P65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>0</v>
+      </c>
+      <c r="R65" s="11">
+        <v>0</v>
+      </c>
+      <c r="S65" s="11">
+        <v>0</v>
+      </c>
+      <c r="T65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="11" customFormat="1" spans="1:20">
+      <c r="A66" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E65" s="17" t="s">
+      <c r="C66" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J65" s="17">
-        <v>0</v>
-      </c>
-      <c r="K65" s="17">
-        <v>0</v>
-      </c>
-      <c r="L65" s="11">
-        <v>1</v>
-      </c>
-      <c r="M65" s="11">
-        <v>1</v>
-      </c>
-      <c r="N65" s="11">
-        <v>1</v>
-      </c>
-      <c r="O65" s="11">
-        <v>1</v>
-      </c>
-      <c r="P65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="11">
-        <v>0</v>
-      </c>
-      <c r="R65" s="11">
-        <v>0</v>
-      </c>
-      <c r="S65" s="11">
-        <v>0</v>
-      </c>
-      <c r="T65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="13" customFormat="1" spans="1:20">
-      <c r="A66" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="J66" s="17">
+        <v>0</v>
+      </c>
+      <c r="K66" s="17">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>1</v>
+      </c>
+      <c r="M66" s="11">
+        <v>1</v>
+      </c>
+      <c r="N66" s="11">
+        <v>1</v>
+      </c>
+      <c r="O66" s="11">
+        <v>1</v>
+      </c>
+      <c r="P66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>0</v>
+      </c>
+      <c r="R66" s="11">
+        <v>0</v>
+      </c>
+      <c r="S66" s="11">
+        <v>0</v>
+      </c>
+      <c r="T66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="11" customFormat="1" spans="1:20">
+      <c r="A67" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J67" s="17">
+        <v>0</v>
+      </c>
+      <c r="K67" s="17">
+        <v>0</v>
+      </c>
+      <c r="L67" s="11">
+        <v>1</v>
+      </c>
+      <c r="M67" s="11">
+        <v>1</v>
+      </c>
+      <c r="N67" s="11">
+        <v>1</v>
+      </c>
+      <c r="O67" s="11">
+        <v>1</v>
+      </c>
+      <c r="P67" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="11">
+        <v>0</v>
+      </c>
+      <c r="R67" s="11">
+        <v>0</v>
+      </c>
+      <c r="S67" s="11">
+        <v>0</v>
+      </c>
+      <c r="T67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" s="11" customFormat="1" spans="1:20">
+      <c r="A68" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J68" s="11">
+        <v>0</v>
+      </c>
+      <c r="K68" s="11">
+        <v>0</v>
+      </c>
+      <c r="L68" s="11">
+        <v>1</v>
+      </c>
+      <c r="M68" s="11">
+        <v>1</v>
+      </c>
+      <c r="N68" s="11">
+        <v>1</v>
+      </c>
+      <c r="O68" s="11">
+        <v>1</v>
+      </c>
+      <c r="P68" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>0</v>
+      </c>
+      <c r="R68" s="11">
+        <v>0</v>
+      </c>
+      <c r="S68" s="11">
+        <v>0</v>
+      </c>
+      <c r="T68" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" s="11" customFormat="1" spans="1:20">
+      <c r="A69" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="J69" s="17">
+        <v>0</v>
+      </c>
+      <c r="K69" s="17">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
+        <v>1</v>
+      </c>
+      <c r="M69" s="11">
+        <v>1</v>
+      </c>
+      <c r="N69" s="11">
+        <v>1</v>
+      </c>
+      <c r="O69" s="11">
+        <v>1</v>
+      </c>
+      <c r="P69" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>0</v>
+      </c>
+      <c r="R69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69" s="11">
+        <v>0</v>
+      </c>
+      <c r="T69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="13" customFormat="1" spans="1:20">
+      <c r="A70" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="J66" s="13">
-        <v>0</v>
-      </c>
-      <c r="K66" s="13">
-        <v>0</v>
-      </c>
-      <c r="L66" s="13">
-        <v>1</v>
-      </c>
-      <c r="M66" s="13">
-        <v>1</v>
-      </c>
-      <c r="N66" s="13">
-        <v>1</v>
-      </c>
-      <c r="O66" s="13">
-        <v>0</v>
-      </c>
-      <c r="P66" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="13">
-        <v>0</v>
-      </c>
-      <c r="R66" s="13">
-        <v>0</v>
-      </c>
-      <c r="S66" s="13">
-        <v>0</v>
-      </c>
-      <c r="T66" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" s="13" customFormat="1" spans="1:20">
-      <c r="A67" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="13" t="s">
+      <c r="D70" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J70" s="13">
+        <v>0</v>
+      </c>
+      <c r="K70" s="13">
+        <v>0</v>
+      </c>
+      <c r="L70" s="13">
+        <v>1</v>
+      </c>
+      <c r="M70" s="13">
+        <v>1</v>
+      </c>
+      <c r="N70" s="13">
+        <v>1</v>
+      </c>
+      <c r="O70" s="13">
+        <v>0</v>
+      </c>
+      <c r="P70" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>0</v>
+      </c>
+      <c r="R70" s="13">
+        <v>0</v>
+      </c>
+      <c r="S70" s="13">
+        <v>0</v>
+      </c>
+      <c r="T70" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="13" customFormat="1" spans="1:20">
+      <c r="A71" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J67" s="13">
-        <v>0</v>
-      </c>
-      <c r="K67" s="13">
-        <v>0</v>
-      </c>
-      <c r="L67" s="13">
-        <v>1</v>
-      </c>
-      <c r="M67" s="13">
-        <v>1</v>
-      </c>
-      <c r="N67" s="13">
-        <v>1</v>
-      </c>
-      <c r="O67" s="13">
-        <v>0</v>
-      </c>
-      <c r="P67" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="13">
-        <v>0</v>
-      </c>
-      <c r="R67" s="13">
-        <v>0</v>
-      </c>
-      <c r="S67" s="13">
-        <v>0</v>
-      </c>
-      <c r="T67" s="13">
+      <c r="D71" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0</v>
+      </c>
+      <c r="K71" s="13">
+        <v>0</v>
+      </c>
+      <c r="L71" s="13">
+        <v>1</v>
+      </c>
+      <c r="M71" s="13">
+        <v>1</v>
+      </c>
+      <c r="N71" s="13">
+        <v>1</v>
+      </c>
+      <c r="O71" s="13">
+        <v>0</v>
+      </c>
+      <c r="P71" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>0</v>
+      </c>
+      <c r="R71" s="13">
+        <v>0</v>
+      </c>
+      <c r="S71" s="13">
+        <v>0</v>
+      </c>
+      <c r="T71" s="13">
         <v>0</v>
       </c>
     </row>

--- a/_resource/excel/class.xlsx
+++ b/_resource/excel/class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065" tabRatio="506"/>
+    <workbookView windowWidth="26340" windowHeight="13065" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="192">
   <si>
     <t>Class</t>
   </si>
@@ -774,12 +774,6 @@
     <t>任务完成情况</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>称号id</t>
-  </si>
-  <si>
     <t>Store</t>
   </si>
   <si>
@@ -794,10 +788,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -833,36 +827,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,46 +841,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -933,21 +867,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -961,10 +880,40 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -975,11 +924,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1058,13 +1052,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,145 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,22 +1243,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,6 +1273,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1295,39 +1322,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,10 +1348,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1366,133 +1360,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1971,14 +1965,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5351,68 +5345,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" s="11" customFormat="1" spans="1:20">
-      <c r="A69" s="17" t="s">
+    <row r="69" s="13" customFormat="1" spans="1:20">
+      <c r="A69" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" s="17" t="s">
+      <c r="B69" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J69" s="17">
-        <v>0</v>
-      </c>
-      <c r="K69" s="17">
-        <v>0</v>
-      </c>
-      <c r="L69" s="11">
-        <v>1</v>
-      </c>
-      <c r="M69" s="11">
-        <v>1</v>
-      </c>
-      <c r="N69" s="11">
-        <v>1</v>
-      </c>
-      <c r="O69" s="11">
-        <v>1</v>
-      </c>
-      <c r="P69" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="11">
-        <v>0</v>
-      </c>
-      <c r="R69" s="11">
-        <v>0</v>
-      </c>
-      <c r="S69" s="11">
-        <v>0</v>
-      </c>
-      <c r="T69" s="11">
+      <c r="J69" s="13">
+        <v>0</v>
+      </c>
+      <c r="K69" s="13">
+        <v>0</v>
+      </c>
+      <c r="L69" s="13">
+        <v>1</v>
+      </c>
+      <c r="M69" s="13">
+        <v>1</v>
+      </c>
+      <c r="N69" s="13">
+        <v>1</v>
+      </c>
+      <c r="O69" s="13">
+        <v>0</v>
+      </c>
+      <c r="P69" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>0</v>
+      </c>
+      <c r="R69" s="13">
+        <v>0</v>
+      </c>
+      <c r="S69" s="13">
+        <v>0</v>
+      </c>
+      <c r="T69" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="70" s="13" customFormat="1" spans="1:20">
       <c r="A70" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J70" s="13">
         <v>0</v>
@@ -5445,53 +5436,6 @@
         <v>0</v>
       </c>
       <c r="T70" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="13" customFormat="1" spans="1:20">
-      <c r="A71" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J71" s="13">
-        <v>0</v>
-      </c>
-      <c r="K71" s="13">
-        <v>0</v>
-      </c>
-      <c r="L71" s="13">
-        <v>1</v>
-      </c>
-      <c r="M71" s="13">
-        <v>1</v>
-      </c>
-      <c r="N71" s="13">
-        <v>1</v>
-      </c>
-      <c r="O71" s="13">
-        <v>0</v>
-      </c>
-      <c r="P71" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="13">
-        <v>0</v>
-      </c>
-      <c r="R71" s="13">
-        <v>0</v>
-      </c>
-      <c r="S71" s="13">
-        <v>0</v>
-      </c>
-      <c r="T71" s="13">
         <v>0</v>
       </c>
     </row>
